--- a/DokkanKits/26.xlsx
+++ b/DokkanKits/26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09457351-1A1C-4AD3-9F23-22E1ED7CB4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE92DC4-93CE-4CF4-8CD5-2982B4D0A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="210" windowWidth="15000" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="638" windowWidth="11414" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1331,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
